--- a/assignment1/前處理.xlsx
+++ b/assignment1/前處理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penny\Documents\魯汶\下學期\進階大數據分析\hw\hw1\advancedanalytics\assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3744093-1507-459E-9BC0-6C1E8E81BB44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E20DC92-7F0F-4FC0-9B04-C7C16A2299F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8352" activeTab="2" xr2:uid="{457FC407-5478-4EA5-9252-0E8A06A5FFAD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8352" xr2:uid="{457FC407-5478-4EA5-9252-0E8A06A5FFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="原有欄位" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
   <si>
     <t>property_id</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>host_nr_listings_total</t>
-  </si>
-  <si>
-    <t>host_verified</t>
   </si>
   <si>
     <t>booking_price_covers</t>
@@ -510,6 +507,38 @@
   </si>
   <si>
     <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經緯度距離中心多遠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經緯度聚類的類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可不可以加床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host_verified中正式文件驗證的方式做成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host_verified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_review - last updated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人均評論數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有評論</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,9 +1010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88E99A7-14E1-4642-B056-ACBEE6EB63FB}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -997,22 +1026,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1023,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1034,27 +1063,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1062,13 +1091,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1076,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1090,13 +1119,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1104,13 +1133,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1118,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1132,13 +1161,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1146,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1157,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -1168,13 +1197,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1182,16 +1211,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1199,16 +1228,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -1216,16 +1245,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1233,16 +1262,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1250,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1264,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1278,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1292,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1306,30 +1335,30 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,7 +1366,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1348,13 +1377,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1362,16 +1391,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
         <v>94</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1382,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1390,7 +1419,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1401,13 +1430,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1415,13 +1444,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
         <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1429,7 +1458,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1440,7 +1469,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1451,7 +1480,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1462,7 +1491,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1470,168 +1499,168 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1639,10 +1668,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1650,10 +1679,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -1661,10 +1690,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -1672,10 +1701,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -1683,10 +1712,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -1694,10 +1723,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -1705,10 +1734,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -1716,10 +1745,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -1727,10 +1756,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -1738,21 +1767,21 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -1769,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA03A5A2-2D3E-49A4-A6D4-5C1F28D656A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
@@ -1783,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5ED569-22F5-4DED-9665-7535BC704C10}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1797,24 +1826,59 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
-        <v>132</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
